--- a/基礎情報_for_students.xlsx
+++ b/基礎情報_for_students.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keidai/Desktop/Git/shozemi/shozemi-thai/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE1854E-3FC1-1F47-9B5F-C49C7AC5328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15000" windowHeight="7035" activeTab="5"/>
+    <workbookView xWindow="16800" yWindow="1280" windowWidth="13360" windowHeight="15000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人口" sheetId="3" r:id="rId1"/>
@@ -14,12 +20,23 @@
     <sheet name="インドGDP" sheetId="7" r:id="rId5"/>
     <sheet name="タイGDP" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Japan</t>
   </si>
@@ -271,16 +288,27 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>/1000 人</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000000000US $</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,13 +455,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
-    <cellStyle name="桁区切り 2" xfId="2"/>
+    <cellStyle name="桁区切り 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準_National data" xfId="3"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_National data" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,12 +472,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,9 +555,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,6 +607,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -731,32 +799,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AW16" sqref="AW16"/>
       <selection pane="topRight" activeCell="AW16" sqref="AW16"/>
       <selection pane="bottomLeft" activeCell="AW16" sqref="AW16"/>
-      <selection pane="bottomRight" activeCell="AW6" sqref="AW6"/>
+      <selection pane="bottomRight" activeCell="AV39" sqref="AV39:AV107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="4.625" style="8" customWidth="1"/>
-    <col min="3" max="38" width="5.625" style="8" customWidth="1"/>
-    <col min="39" max="39" width="14.125" style="8" customWidth="1"/>
-    <col min="40" max="59" width="5.625" style="8" customWidth="1"/>
+    <col min="1" max="2" width="4.6640625" style="8" customWidth="1"/>
+    <col min="3" max="38" width="5.6640625" style="8" customWidth="1"/>
+    <col min="39" max="39" width="14.1640625" style="8" customWidth="1"/>
+    <col min="40" max="59" width="5.6640625" style="8" customWidth="1"/>
     <col min="60" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:58">
       <c r="B1" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:58">
       <c r="B2" s="8" t="s">
         <v>63</v>
       </c>
@@ -764,17 +832,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:58">
       <c r="B4" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:58">
       <c r="B5" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:58">
       <c r="C6" s="8" t="s">
         <v>59</v>
       </c>
@@ -944,7 +1012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:58">
       <c r="A7" s="8">
         <v>1950</v>
       </c>
@@ -1114,7 +1182,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:58">
       <c r="A8" s="14">
         <f>A7+(A12-A7)/5*1</f>
         <v>1951</v>
@@ -1344,7 +1412,7 @@
         <v>1953.6</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:58">
       <c r="A9" s="14">
         <f>A7+(A12-A7)/5*2</f>
         <v>1952</v>
@@ -1574,7 +1642,7 @@
         <v>1999.2</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:58">
       <c r="A10" s="14">
         <f>A7+(A12-A7)/5*3</f>
         <v>1953</v>
@@ -1804,7 +1872,7 @@
         <v>2044.8</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:58">
       <c r="A11" s="14">
         <f>A7+(A12-A7)/5*4</f>
         <v>1954</v>
@@ -2034,7 +2102,7 @@
         <v>2090.4</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:58">
       <c r="A12" s="8">
         <v>1955</v>
       </c>
@@ -2207,7 +2275,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:58">
       <c r="A13" s="14">
         <f>A12+(A17-A12)/5*1</f>
         <v>1956</v>
@@ -2437,7 +2505,7 @@
         <v>2183.1999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:58">
       <c r="A14" s="14">
         <f>A12+(A17-A12)/5*2</f>
         <v>1957</v>
@@ -2667,7 +2735,7 @@
         <v>2230.4</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:58">
       <c r="A15" s="14">
         <f>A12+(A17-A12)/5*3</f>
         <v>1958</v>
@@ -2897,7 +2965,7 @@
         <v>2277.6</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:58">
       <c r="A16" s="14">
         <f>A12+(A17-A12)/5*4</f>
         <v>1959</v>
@@ -3127,7 +3195,7 @@
         <v>2324.8000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:58">
       <c r="A17" s="8">
         <v>1960</v>
       </c>
@@ -3300,7 +3368,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:58">
       <c r="A18" s="14">
         <f>A17+(A22-A17)/5*1</f>
         <v>1961</v>
@@ -3530,7 +3598,7 @@
         <v>2423.1999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:58">
       <c r="A19" s="14">
         <f>A17+(A22-A17)/5*2</f>
         <v>1962</v>
@@ -3760,7 +3828,7 @@
         <v>2474.4</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:58">
       <c r="A20" s="14">
         <f>A17+(A22-A17)/5*3</f>
         <v>1963</v>
@@ -3990,7 +4058,7 @@
         <v>2525.6</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:58">
       <c r="A21" s="14">
         <f>A17+(A22-A17)/5*4</f>
         <v>1964</v>
@@ -4220,7 +4288,7 @@
         <v>2576.8000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:58">
       <c r="A22" s="8">
         <v>1965</v>
       </c>
@@ -4393,7 +4461,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:58">
       <c r="A23" s="14">
         <f>A22+(A27-A22)/5*1</f>
         <v>1966</v>
@@ -4623,7 +4691,7 @@
         <v>2666.4</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:58">
       <c r="A24" s="14">
         <f>A22+(A27-A22)/5*2</f>
         <v>1967</v>
@@ -4853,7 +4921,7 @@
         <v>2704.8</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:58">
       <c r="A25" s="14">
         <f>A22+(A27-A22)/5*3</f>
         <v>1968</v>
@@ -5083,7 +5151,7 @@
         <v>2743.2</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:58">
       <c r="A26" s="14">
         <f>A22+(A27-A22)/5*4</f>
         <v>1969</v>
@@ -5313,7 +5381,7 @@
         <v>2781.6</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:58">
       <c r="A27" s="8">
         <v>1970</v>
       </c>
@@ -5486,7 +5554,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:58">
       <c r="A28" s="14">
         <f>A27+(A32-A27)/5*1</f>
         <v>1971</v>
@@ -5716,7 +5784,7 @@
         <v>2872.6</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:58">
       <c r="A29" s="14">
         <f>A27+(A32-A27)/5*2</f>
         <v>1972</v>
@@ -5946,7 +6014,7 @@
         <v>2925.2</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:58">
       <c r="A30" s="14">
         <f>A27+(A32-A27)/5*3</f>
         <v>1973</v>
@@ -6176,7 +6244,7 @@
         <v>2977.8</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:58">
       <c r="A31" s="14">
         <f>A27+(A32-A27)/5*4</f>
         <v>1974</v>
@@ -6406,7 +6474,7 @@
         <v>3030.4</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:58">
       <c r="A32" s="8">
         <v>1975</v>
       </c>
@@ -6579,7 +6647,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:58">
       <c r="A33" s="14">
         <f>A32+(A37-A32)/5*1</f>
         <v>1976</v>
@@ -6809,7 +6877,7 @@
         <v>3095.8</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:58">
       <c r="A34" s="14">
         <f>A32+(A37-A32)/5*2</f>
         <v>1977</v>
@@ -7039,7 +7107,7 @@
         <v>3108.6</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:58">
       <c r="A35" s="14">
         <f>A32+(A37-A32)/5*3</f>
         <v>1978</v>
@@ -7269,7 +7337,7 @@
         <v>3121.4</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:58">
       <c r="A36" s="14">
         <f>A32+(A37-A32)/5*4</f>
         <v>1979</v>
@@ -7499,7 +7567,7 @@
         <v>3134.2</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:58">
       <c r="A37" s="8">
         <v>1980</v>
       </c>
@@ -7672,7 +7740,7 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:58">
       <c r="A38" s="14">
         <f>A37+(A42-A37)/5*1</f>
         <v>1981</v>
@@ -7902,7 +7970,7 @@
         <v>3172.4</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:58">
       <c r="A39" s="14">
         <f>A37+(A42-A37)/5*2</f>
         <v>1982</v>
@@ -8132,7 +8200,7 @@
         <v>3197.8</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:58">
       <c r="A40" s="14">
         <f>A37+(A42-A37)/5*3</f>
         <v>1983</v>
@@ -8362,7 +8430,7 @@
         <v>3223.2</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:58">
       <c r="A41" s="14">
         <f>A37+(A42-A37)/5*4</f>
         <v>1984</v>
@@ -8592,7 +8660,7 @@
         <v>3248.6</v>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:58">
       <c r="A42" s="8">
         <v>1985</v>
       </c>
@@ -8765,7 +8833,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:58">
       <c r="A43" s="14">
         <f>A42+(A47-A42)/5*1</f>
         <v>1986</v>
@@ -8995,7 +9063,7 @@
         <v>3296.4</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:58">
       <c r="A44" s="14">
         <f>A42+(A47-A42)/5*2</f>
         <v>1987</v>
@@ -9225,7 +9293,7 @@
         <v>3318.8</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:58">
       <c r="A45" s="14">
         <f>A42+(A47-A42)/5*3</f>
         <v>1988</v>
@@ -9455,7 +9523,7 @@
         <v>3341.2</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:58">
       <c r="A46" s="14">
         <f>A42+(A47-A42)/5*4</f>
         <v>1989</v>
@@ -9685,7 +9753,7 @@
         <v>3363.6</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:58">
       <c r="A47" s="8">
         <v>1990</v>
       </c>
@@ -9858,7 +9926,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:58">
       <c r="A48" s="14">
         <f>A47+(A52-A47)/5*1</f>
         <v>1991</v>
@@ -10088,7 +10156,7 @@
         <v>3445.8</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:58">
       <c r="A49" s="14">
         <f>A47+(A52-A47)/5*2</f>
         <v>1992</v>
@@ -10318,7 +10386,7 @@
         <v>3505.6</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:58">
       <c r="A50" s="14">
         <f>A47+(A52-A47)/5*3</f>
         <v>1993</v>
@@ -10548,7 +10616,7 @@
         <v>3565.4</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:58">
       <c r="A51" s="14">
         <f>A47+(A52-A47)/5*4</f>
         <v>1994</v>
@@ -10778,7 +10846,7 @@
         <v>3625.2</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:58">
       <c r="A52" s="8">
         <v>1995</v>
       </c>
@@ -10951,7 +11019,7 @@
         <v>3685</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:58">
       <c r="A53" s="14">
         <f>A52+(A57-A52)/5*1</f>
         <v>1996</v>
@@ -11181,7 +11249,7 @@
         <v>3721.6</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:58">
       <c r="A54" s="14">
         <f>A52+(A57-A52)/5*2</f>
         <v>1997</v>
@@ -11411,7 +11479,7 @@
         <v>3758.2</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:58">
       <c r="A55" s="14">
         <f>A52+(A57-A52)/5*3</f>
         <v>1998</v>
@@ -11641,7 +11709,7 @@
         <v>3794.8</v>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:58">
       <c r="A56" s="14">
         <f>A52+(A57-A52)/5*4</f>
         <v>1999</v>
@@ -11871,7 +11939,7 @@
         <v>3831.4</v>
       </c>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:58">
       <c r="A57" s="8">
         <v>2000</v>
       </c>
@@ -12044,7 +12112,7 @@
         <v>3868</v>
       </c>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:58">
       <c r="A58" s="14">
         <f>A57+(A62-A57)/5*1</f>
         <v>2001</v>
@@ -12273,7 +12341,7 @@
         <v>3916.6</v>
       </c>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:58">
       <c r="A59" s="14">
         <f>A57+(A62-A57)/5*2</f>
         <v>2002</v>
@@ -12502,7 +12570,7 @@
         <v>3965.2</v>
       </c>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:58">
       <c r="A60" s="14">
         <f>A57+(A62-A57)/5*3</f>
         <v>2003</v>
@@ -12731,7 +12799,7 @@
         <v>4013.8</v>
       </c>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:58">
       <c r="A61" s="14">
         <f>A57+(A62-A57)/5*4</f>
         <v>2004</v>
@@ -12960,7 +13028,7 @@
         <v>4062.4</v>
       </c>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:58">
       <c r="A62" s="8">
         <v>2005</v>
       </c>
@@ -13133,7 +13201,7 @@
         <v>4111</v>
       </c>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:58">
       <c r="A63" s="14">
         <f>A62+(A67-A62)/5*1</f>
         <v>2006</v>
@@ -13362,7 +13430,7 @@
         <v>4149.3999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:58">
       <c r="A64" s="14">
         <f>A62+(A67-A62)/5*2</f>
         <v>2007</v>
@@ -13591,7 +13659,7 @@
         <v>4187.8</v>
       </c>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:58">
       <c r="A65" s="14">
         <f>A62+(A67-A62)/5*3</f>
         <v>2008</v>
@@ -13820,7 +13888,7 @@
         <v>4226.2</v>
       </c>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:58">
       <c r="A66" s="14">
         <f>A62+(A67-A62)/5*4</f>
         <v>2009</v>
@@ -14049,7 +14117,7 @@
         <v>4264.6000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:58">
       <c r="A67" s="8">
         <v>2010</v>
       </c>
@@ -14222,7 +14290,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:58">
       <c r="A68" s="14">
         <f>A67+(A72-A67)/5*1</f>
         <v>2011</v>
@@ -14451,7 +14519,7 @@
         <v>4340.8</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:58">
       <c r="A69" s="14">
         <f>A67+(A72-A67)/5*2</f>
         <v>2012</v>
@@ -14681,7 +14749,7 @@
         <v>4378.6000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:58">
       <c r="A70" s="14">
         <f>A67+(A72-A67)/5*3</f>
         <v>2013</v>
@@ -14911,7 +14979,7 @@
         <v>4416.3999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:58">
       <c r="A71" s="14">
         <f>A67+(A72-A67)/5*4</f>
         <v>2014</v>
@@ -15141,7 +15209,7 @@
         <v>4454.2</v>
       </c>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:58">
       <c r="A72" s="8">
         <v>2015</v>
       </c>
@@ -15315,7 +15383,7 @@
         <v>4492</v>
       </c>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:58">
       <c r="A73" s="14">
         <f>A72+(A77-A72)/5*1</f>
         <v>2016</v>
@@ -15544,7 +15612,7 @@
         <v>4527.3999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:58">
       <c r="A74" s="14">
         <f>A72+(A77-A72)/5*2</f>
         <v>2017</v>
@@ -15774,7 +15842,7 @@
         <v>4562.8</v>
       </c>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:58">
       <c r="A75" s="14">
         <f>A72+(A77-A72)/5*3</f>
         <v>2018</v>
@@ -16004,7 +16072,7 @@
         <v>4598.2</v>
       </c>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:58">
       <c r="A76" s="14">
         <f>A72+(A77-A72)/5*4</f>
         <v>2019</v>
@@ -16234,7 +16302,7 @@
         <v>4633.6000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:58">
       <c r="A77" s="8">
         <v>2020</v>
       </c>
@@ -16408,7 +16476,7 @@
         <v>4669</v>
       </c>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:58">
       <c r="A78" s="14">
         <f>A77+(A82-A77)/5*1</f>
         <v>2021</v>
@@ -16637,7 +16705,7 @@
         <v>4701.3999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:58">
       <c r="A79" s="14">
         <f>A77+(A82-A77)/5*2</f>
         <v>2022</v>
@@ -16867,7 +16935,7 @@
         <v>4733.8</v>
       </c>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:58">
       <c r="A80" s="14">
         <f>A77+(A82-A77)/5*3</f>
         <v>2023</v>
@@ -17097,7 +17165,7 @@
         <v>4766.2</v>
       </c>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:58">
       <c r="A81" s="14">
         <f>A77+(A82-A77)/5*4</f>
         <v>2024</v>
@@ -17327,7 +17395,7 @@
         <v>4798.6000000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:58">
       <c r="A82" s="8">
         <v>2025</v>
       </c>
@@ -17501,7 +17569,7 @@
         <v>4831</v>
       </c>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:58">
       <c r="A83" s="14">
         <f>A82+(A87-A82)/5*1</f>
         <v>2026</v>
@@ -17730,7 +17798,7 @@
         <v>4859.2</v>
       </c>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:58">
       <c r="A84" s="14">
         <f>A82+(A87-A82)/5*2</f>
         <v>2027</v>
@@ -17960,7 +18028,7 @@
         <v>4887.3999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:58">
       <c r="A85" s="14">
         <f>A82+(A87-A82)/5*3</f>
         <v>2028</v>
@@ -18190,7 +18258,7 @@
         <v>4915.6000000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:58">
       <c r="A86" s="14">
         <f>A82+(A87-A82)/5*4</f>
         <v>2029</v>
@@ -18420,7 +18488,7 @@
         <v>4943.8</v>
       </c>
     </row>
-    <row r="87" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:58">
       <c r="A87" s="8">
         <v>2030</v>
       </c>
@@ -18594,7 +18662,7 @@
         <v>4972</v>
       </c>
     </row>
-    <row r="88" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:58">
       <c r="A88" s="14">
         <f>A87+(A92-A87)/5*1</f>
         <v>2031</v>
@@ -18823,7 +18891,7 @@
         <v>4995.6000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:58">
       <c r="A89" s="14">
         <f>A87+(A92-A87)/5*2</f>
         <v>2032</v>
@@ -19053,7 +19121,7 @@
         <v>5019.2</v>
       </c>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:58">
       <c r="A90" s="14">
         <f>A87+(A92-A87)/5*3</f>
         <v>2033</v>
@@ -19283,7 +19351,7 @@
         <v>5042.8</v>
       </c>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:58">
       <c r="A91" s="14">
         <f>A87+(A92-A87)/5*4</f>
         <v>2034</v>
@@ -19513,7 +19581,7 @@
         <v>5066.3999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:58">
       <c r="A92" s="8">
         <v>2035</v>
       </c>
@@ -19687,7 +19755,7 @@
         <v>5090</v>
       </c>
     </row>
-    <row r="93" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:58">
       <c r="A93" s="14">
         <f>A92+(A97-A92)/5*1</f>
         <v>2036</v>
@@ -19916,7 +19984,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:58">
       <c r="A94" s="14">
         <f>A92+(A97-A92)/5*2</f>
         <v>2037</v>
@@ -20146,7 +20214,7 @@
         <v>5130</v>
       </c>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:58">
       <c r="A95" s="14">
         <f>A92+(A97-A92)/5*3</f>
         <v>2038</v>
@@ -20376,7 +20444,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:58">
       <c r="A96" s="14">
         <f>A92+(A97-A92)/5*4</f>
         <v>2039</v>
@@ -20606,7 +20674,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="97" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:58">
       <c r="A97" s="8">
         <v>2040</v>
       </c>
@@ -20780,7 +20848,7 @@
         <v>5190</v>
       </c>
     </row>
-    <row r="98" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:58">
       <c r="A98" s="14">
         <f>A97+(A102-A97)/5*1</f>
         <v>2041</v>
@@ -21009,7 +21077,7 @@
         <v>5207.2</v>
       </c>
     </row>
-    <row r="99" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:58">
       <c r="A99" s="14">
         <f>A97+(A102-A97)/5*2</f>
         <v>2042</v>
@@ -21239,7 +21307,7 @@
         <v>5224.3999999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:58">
       <c r="A100" s="14">
         <f>A97+(A102-A97)/5*3</f>
         <v>2043</v>
@@ -21469,7 +21537,7 @@
         <v>5241.6000000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:58">
       <c r="A101" s="14">
         <f>A97+(A102-A97)/5*4</f>
         <v>2044</v>
@@ -21699,7 +21767,7 @@
         <v>5258.8</v>
       </c>
     </row>
-    <row r="102" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:58">
       <c r="A102" s="8">
         <v>2045</v>
       </c>
@@ -21873,7 +21941,7 @@
         <v>5276</v>
       </c>
     </row>
-    <row r="103" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:58">
       <c r="A103" s="14">
         <f>A102+(A107-A102)/5*1</f>
         <v>2046</v>
@@ -22102,7 +22170,7 @@
         <v>5290.6</v>
       </c>
     </row>
-    <row r="104" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:58">
       <c r="A104" s="14">
         <f>A102+(A107-A102)/5*2</f>
         <v>2047</v>
@@ -22331,7 +22399,7 @@
         <v>5305.2</v>
       </c>
     </row>
-    <row r="105" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:58">
       <c r="A105" s="14">
         <f>A102+(A107-A102)/5*3</f>
         <v>2048</v>
@@ -22560,7 +22628,7 @@
         <v>5319.8</v>
       </c>
     </row>
-    <row r="106" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:58">
       <c r="A106" s="14">
         <f>A102+(A107-A102)/5*4</f>
         <v>2049</v>
@@ -22789,7 +22857,7 @@
         <v>5334.4</v>
       </c>
     </row>
-    <row r="107" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:58">
       <c r="A107" s="8">
         <v>2050</v>
       </c>
@@ -22962,13 +23030,13 @@
         <v>5349</v>
       </c>
     </row>
-    <row r="109" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:58">
       <c r="AG109" s="9"/>
       <c r="AH109" s="9"/>
       <c r="AI109" s="9"/>
       <c r="AJ109" s="9"/>
     </row>
-    <row r="110" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:58">
       <c r="AG110" s="9"/>
       <c r="AH110" s="13"/>
       <c r="AI110" s="12"/>
@@ -22979,7 +23047,7 @@
       <c r="AY110" s="9"/>
       <c r="AZ110" s="9"/>
     </row>
-    <row r="111" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:58">
       <c r="C111" s="8" t="s">
         <v>4</v>
       </c>
@@ -22993,7 +23061,7 @@
       <c r="AY111" s="9"/>
       <c r="AZ111" s="9"/>
     </row>
-    <row r="112" spans="1:58" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:58">
       <c r="AG112" s="9"/>
       <c r="AH112" s="11"/>
       <c r="AI112" s="10"/>
@@ -23004,7 +23072,7 @@
       <c r="AY112" s="9"/>
       <c r="AZ112" s="9"/>
     </row>
-    <row r="113" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="113" spans="33:52">
       <c r="AG113" s="9"/>
       <c r="AH113" s="11"/>
       <c r="AI113" s="10"/>
@@ -23015,7 +23083,7 @@
       <c r="AY113" s="9"/>
       <c r="AZ113" s="9"/>
     </row>
-    <row r="114" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="114" spans="33:52">
       <c r="AG114" s="9"/>
       <c r="AH114" s="11"/>
       <c r="AI114" s="10"/>
@@ -23026,7 +23094,7 @@
       <c r="AY114" s="9"/>
       <c r="AZ114" s="9"/>
     </row>
-    <row r="115" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="115" spans="33:52">
       <c r="AG115" s="9"/>
       <c r="AH115" s="11"/>
       <c r="AI115" s="10"/>
@@ -23037,7 +23105,7 @@
       <c r="AY115" s="9"/>
       <c r="AZ115" s="9"/>
     </row>
-    <row r="116" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="116" spans="33:52">
       <c r="AG116" s="9"/>
       <c r="AH116" s="11"/>
       <c r="AI116" s="10"/>
@@ -23048,7 +23116,7 @@
       <c r="AY116" s="9"/>
       <c r="AZ116" s="9"/>
     </row>
-    <row r="117" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="117" spans="33:52">
       <c r="AG117" s="9"/>
       <c r="AH117" s="11"/>
       <c r="AI117" s="10"/>
@@ -23059,7 +23127,7 @@
       <c r="AY117" s="9"/>
       <c r="AZ117" s="9"/>
     </row>
-    <row r="118" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="118" spans="33:52">
       <c r="AG118" s="9"/>
       <c r="AH118" s="11"/>
       <c r="AI118" s="10"/>
@@ -23070,7 +23138,7 @@
       <c r="AY118" s="9"/>
       <c r="AZ118" s="9"/>
     </row>
-    <row r="119" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="119" spans="33:52">
       <c r="AG119" s="9"/>
       <c r="AH119" s="11"/>
       <c r="AI119" s="10"/>
@@ -23081,7 +23149,7 @@
       <c r="AY119" s="9"/>
       <c r="AZ119" s="9"/>
     </row>
-    <row r="120" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="120" spans="33:52">
       <c r="AG120" s="9"/>
       <c r="AH120" s="11"/>
       <c r="AI120" s="10"/>
@@ -23092,7 +23160,7 @@
       <c r="AY120" s="9"/>
       <c r="AZ120" s="9"/>
     </row>
-    <row r="121" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="121" spans="33:52">
       <c r="AG121" s="9"/>
       <c r="AH121" s="11"/>
       <c r="AI121" s="10"/>
@@ -23103,7 +23171,7 @@
       <c r="AY121" s="9"/>
       <c r="AZ121" s="9"/>
     </row>
-    <row r="122" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="122" spans="33:52">
       <c r="AG122" s="9"/>
       <c r="AH122" s="11"/>
       <c r="AI122" s="10"/>
@@ -23114,7 +23182,7 @@
       <c r="AY122" s="9"/>
       <c r="AZ122" s="9"/>
     </row>
-    <row r="123" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="123" spans="33:52">
       <c r="AG123" s="9"/>
       <c r="AH123" s="11"/>
       <c r="AI123" s="10"/>
@@ -23125,7 +23193,7 @@
       <c r="AY123" s="9"/>
       <c r="AZ123" s="9"/>
     </row>
-    <row r="124" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="124" spans="33:52">
       <c r="AG124" s="9"/>
       <c r="AH124" s="11"/>
       <c r="AI124" s="10"/>
@@ -23136,7 +23204,7 @@
       <c r="AY124" s="9"/>
       <c r="AZ124" s="9"/>
     </row>
-    <row r="125" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="125" spans="33:52">
       <c r="AG125" s="9"/>
       <c r="AH125" s="11"/>
       <c r="AI125" s="10"/>
@@ -23147,7 +23215,7 @@
       <c r="AY125" s="9"/>
       <c r="AZ125" s="9"/>
     </row>
-    <row r="126" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="126" spans="33:52">
       <c r="AG126" s="9"/>
       <c r="AH126" s="11"/>
       <c r="AI126" s="10"/>
@@ -23158,7 +23226,7 @@
       <c r="AY126" s="9"/>
       <c r="AZ126" s="9"/>
     </row>
-    <row r="127" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="127" spans="33:52">
       <c r="AG127" s="9"/>
       <c r="AH127" s="11"/>
       <c r="AI127" s="10"/>
@@ -23169,7 +23237,7 @@
       <c r="AY127" s="9"/>
       <c r="AZ127" s="9"/>
     </row>
-    <row r="128" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="128" spans="33:52">
       <c r="AG128" s="9"/>
       <c r="AH128" s="11"/>
       <c r="AI128" s="10"/>
@@ -23180,7 +23248,7 @@
       <c r="AY128" s="9"/>
       <c r="AZ128" s="9"/>
     </row>
-    <row r="129" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="129" spans="33:52">
       <c r="AG129" s="9"/>
       <c r="AH129" s="11"/>
       <c r="AI129" s="10"/>
@@ -23191,7 +23259,7 @@
       <c r="AY129" s="9"/>
       <c r="AZ129" s="9"/>
     </row>
-    <row r="130" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="130" spans="33:52">
       <c r="AG130" s="9"/>
       <c r="AH130" s="11"/>
       <c r="AI130" s="10"/>
@@ -23202,7 +23270,7 @@
       <c r="AY130" s="9"/>
       <c r="AZ130" s="9"/>
     </row>
-    <row r="131" spans="33:52" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="33:52" ht="14">
       <c r="AG131" s="9"/>
       <c r="AH131" s="20"/>
       <c r="AI131" s="20"/>
@@ -23213,7 +23281,7 @@
       <c r="AY131" s="9"/>
       <c r="AZ131" s="9"/>
     </row>
-    <row r="132" spans="33:52" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="33:52" ht="14">
       <c r="AG132" s="9"/>
       <c r="AH132" s="9"/>
       <c r="AI132" s="9"/>
@@ -23224,7 +23292,7 @@
       <c r="AY132" s="9"/>
       <c r="AZ132" s="9"/>
     </row>
-    <row r="133" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="133" spans="33:52">
       <c r="AG133" s="9"/>
       <c r="AH133" s="9"/>
       <c r="AI133" s="9"/>
@@ -23235,7 +23303,7 @@
       <c r="AY133" s="9"/>
       <c r="AZ133" s="9"/>
     </row>
-    <row r="134" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="134" spans="33:52">
       <c r="AG134" s="9"/>
       <c r="AH134" s="9"/>
       <c r="AI134" s="9"/>
@@ -23246,7 +23314,7 @@
       <c r="AY134" s="9"/>
       <c r="AZ134" s="9"/>
     </row>
-    <row r="135" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="135" spans="33:52">
       <c r="AG135" s="9"/>
       <c r="AH135" s="9"/>
       <c r="AI135" s="9"/>
@@ -23257,7 +23325,7 @@
       <c r="AY135" s="9"/>
       <c r="AZ135" s="9"/>
     </row>
-    <row r="136" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="136" spans="33:52">
       <c r="AG136" s="9"/>
       <c r="AH136" s="9"/>
       <c r="AI136" s="9"/>
@@ -23268,7 +23336,7 @@
       <c r="AY136" s="9"/>
       <c r="AZ136" s="9"/>
     </row>
-    <row r="137" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="137" spans="33:52">
       <c r="AG137" s="9"/>
       <c r="AH137" s="9"/>
       <c r="AI137" s="9"/>
@@ -23279,7 +23347,7 @@
       <c r="AY137" s="9"/>
       <c r="AZ137" s="9"/>
     </row>
-    <row r="138" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="138" spans="33:52">
       <c r="AG138" s="9"/>
       <c r="AH138" s="9"/>
       <c r="AI138" s="9"/>
@@ -23290,7 +23358,7 @@
       <c r="AY138" s="9"/>
       <c r="AZ138" s="9"/>
     </row>
-    <row r="139" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="139" spans="33:52">
       <c r="AG139" s="9"/>
       <c r="AH139" s="9"/>
       <c r="AI139" s="9"/>
@@ -23301,35 +23369,35 @@
       <c r="AY139" s="9"/>
       <c r="AZ139" s="9"/>
     </row>
-    <row r="140" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="140" spans="33:52">
       <c r="AV140" s="9"/>
       <c r="AW140" s="9"/>
       <c r="AX140" s="9"/>
       <c r="AY140" s="9"/>
       <c r="AZ140" s="9"/>
     </row>
-    <row r="141" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="141" spans="33:52">
       <c r="AV141" s="9"/>
       <c r="AW141" s="9"/>
       <c r="AX141" s="9"/>
       <c r="AY141" s="9"/>
       <c r="AZ141" s="9"/>
     </row>
-    <row r="142" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="142" spans="33:52">
       <c r="AV142" s="9"/>
       <c r="AW142" s="9"/>
       <c r="AX142" s="9"/>
       <c r="AY142" s="9"/>
       <c r="AZ142" s="9"/>
     </row>
-    <row r="143" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="143" spans="33:52">
       <c r="AV143" s="9"/>
       <c r="AW143" s="9"/>
       <c r="AX143" s="9"/>
       <c r="AY143" s="9"/>
       <c r="AZ143" s="9"/>
     </row>
-    <row r="144" spans="33:52" x14ac:dyDescent="0.15">
+    <row r="144" spans="33:52">
       <c r="AV144" s="9"/>
       <c r="AW144" s="9"/>
       <c r="AX144" s="9"/>
@@ -23349,23 +23417,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1:C1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1:C1"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1"/>
       <selection pane="bottomRight" activeCell="B116" sqref="A1:B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23376,7 +23444,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1900</v>
       </c>
@@ -23384,7 +23452,7 @@
         <v>756.37420554194489</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1901</v>
       </c>
@@ -23392,7 +23460,7 @@
         <v>773.65599420083527</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>1902</v>
       </c>
@@ -23400,7 +23468,7 @@
         <v>723.9210114689148</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>1903</v>
       </c>
@@ -23408,7 +23476,7 @@
         <v>764.78379366785725</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>1904</v>
       </c>
@@ -23416,7 +23484,7 @@
         <v>761.87293343629619</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>1905</v>
       </c>
@@ -23424,7 +23492,7 @@
         <v>741.78002293275301</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>1906</v>
       </c>
@@ -23432,7 +23500,7 @@
         <v>831.84800107338742</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>1907</v>
       </c>
@@ -23440,7 +23508,7 @@
         <v>849.76800953857582</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>1908</v>
       </c>
@@ -23448,7 +23516,7 @@
         <v>845.46156577464797</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>1909</v>
       </c>
@@ -23456,7 +23524,7 @@
         <v>833.98528707471951</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>1910</v>
       </c>
@@ -23464,7 +23532,7 @@
         <v>836.04550622551722</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>1911</v>
       </c>
@@ -23472,7 +23540,7 @@
         <v>869.27734180120751</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>1912</v>
       </c>
@@ -23480,7 +23548,7 @@
         <v>887.55618276769837</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>1913</v>
       </c>
@@ -23488,7 +23556,7 @@
         <v>889.22763256793098</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>1914</v>
       </c>
@@ -23496,7 +23564,7 @@
         <v>850.63220709879829</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>1915</v>
       </c>
@@ -23504,7 +23572,7 @@
         <v>916.81839552468057</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>1916</v>
       </c>
@@ -23512,7 +23580,7 @@
         <v>1045.0721984870643</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>1917</v>
       </c>
@@ -23520,7 +23588,7 @@
         <v>1067.7376663117625</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>1918</v>
       </c>
@@ -23528,7 +23596,7 @@
         <v>1069.8859737274363</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>1919</v>
       </c>
@@ -23536,7 +23604,7 @@
         <v>1171.7186732691555</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>1920</v>
       </c>
@@ -23544,7 +23612,7 @@
         <v>1087.4186261402454</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>1921</v>
       </c>
@@ -23552,7 +23620,7 @@
         <v>1192.4237485794563</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>1922</v>
       </c>
@@ -23560,7 +23628,7 @@
         <v>1174.2247701643673</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>1923</v>
       </c>
@@ -23568,7 +23636,7 @@
         <v>1160.2632695266125</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>1924</v>
       </c>
@@ -23576,7 +23644,7 @@
         <v>1177.555942234867</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>1925</v>
       </c>
@@ -23584,7 +23652,7 @@
         <v>1208.8779708386562</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>1926</v>
       </c>
@@ -23592,7 +23660,7 @@
         <v>1200.1671179282396</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>1927</v>
       </c>
@@ -23600,7 +23668,7 @@
         <v>1199.0056467323841</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>1928</v>
       </c>
@@ -23608,7 +23676,7 @@
         <v>1277.6274783744157</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>1929</v>
       </c>
@@ -23616,7 +23684,7 @@
         <v>1299.0216996288918</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>1930</v>
       </c>
@@ -23624,7 +23692,7 @@
         <v>1186.5810981016948</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>1931</v>
       </c>
@@ -23632,7 +23700,7 @@
         <v>1178.2124166036931</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>1932</v>
       </c>
@@ -23640,7 +23708,7 @@
         <v>1257.8840057539896</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>1933</v>
       </c>
@@ -23648,7 +23716,7 @@
         <v>1361.0321032091895</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>1934</v>
       </c>
@@ -23656,7 +23724,7 @@
         <v>1345.5816043283885</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>1935</v>
       </c>
@@ -23664,7 +23732,7 @@
         <v>1359.7706577511299</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>1936</v>
       </c>
@@ -23672,7 +23740,7 @@
         <v>1439.2566468434279</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>1937</v>
       </c>
@@ -23680,7 +23748,7 @@
         <v>1484.5904211650925</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>1938</v>
       </c>
@@ -23688,7 +23756,7 @@
         <v>1570.620824653002</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>1939</v>
       </c>
@@ -23696,7 +23764,7 @@
         <v>1805.8232841504416</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>1940</v>
       </c>
@@ -23704,7 +23772,7 @@
         <v>1843.1660101601644</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>1941</v>
       </c>
@@ -23712,7 +23780,7 @@
         <v>1842.1487882245622</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>1942</v>
       </c>
@@ -23720,7 +23788,7 @@
         <v>1807.2085506787764</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>1943</v>
       </c>
@@ -23728,7 +23796,7 @@
         <v>1809.3924544245783</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>1944</v>
       </c>
@@ -23736,7 +23804,7 @@
         <v>1705.0916004413637</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>1945</v>
       </c>
@@ -23744,7 +23812,7 @@
         <v>863.21604441424984</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>1946</v>
       </c>
@@ -23752,7 +23820,7 @@
         <v>926.11760356945024</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>1947</v>
       </c>
@@ -23760,7 +23828,7 @@
         <v>988.14534218927815</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>1948</v>
       </c>
@@ -23768,7 +23836,7 @@
         <v>1106.3560419686453</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>1949</v>
       </c>
@@ -23776,7 +23844,7 @@
         <v>1154.1555245595787</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>1950</v>
       </c>
@@ -23784,7 +23852,7 @@
         <v>1231.680496839773</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>1951</v>
       </c>
@@ -23792,7 +23860,7 @@
         <v>1363.0667471180452</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>1952</v>
       </c>
@@ -23800,7 +23868,7 @@
         <v>1498.254630268958</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>1953</v>
       </c>
@@ -23808,7 +23876,7 @@
         <v>1586.6965145385161</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>1954</v>
       </c>
@@ -23816,7 +23884,7 @@
         <v>1655.6487028548843</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>1955</v>
       </c>
@@ -23824,7 +23892,7 @@
         <v>1776.7693330288648</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>1956</v>
       </c>
@@ -23832,7 +23900,7 @@
         <v>1890.34984474355</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>1957</v>
       </c>
@@ -23840,7 +23908,7 @@
         <v>2010.9087215000507</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>1958</v>
       </c>
@@ -23848,7 +23916,7 @@
         <v>2109.035519882008</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>1959</v>
       </c>
@@ -23856,7 +23924,7 @@
         <v>2278.9952159336822</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>1960</v>
       </c>
@@ -23864,7 +23932,7 @@
         <v>2556.3381414098099</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>1961</v>
       </c>
@@ -23872,7 +23940,7 @@
         <v>2838.3970108770018</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>1962</v>
       </c>
@@ -23880,7 +23948,7 @@
         <v>3062.9870115043109</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>1963</v>
       </c>
@@ -23888,7 +23956,7 @@
         <v>3288.7920858481325</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>1964</v>
       </c>
@@ -23896,7 +23964,7 @@
         <v>3634.4606083083736</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>1965</v>
       </c>
@@ -23904,7 +23972,7 @@
         <v>3805.0722981941776</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>1966</v>
       </c>
@@ -23912,7 +23980,7 @@
         <v>4171.7342252479111</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>1967</v>
       </c>
@@ -23920,7 +23988,7 @@
         <v>4586.4765594146447</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>1968</v>
       </c>
@@ -23928,7 +23996,7 @@
         <v>5119.3759302594644</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>1969</v>
       </c>
@@ -23936,7 +24004,7 @@
         <v>5690.5942150873243</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>1970</v>
       </c>
@@ -23944,7 +24012,7 @@
         <v>6229.1640831515379</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>1971</v>
       </c>
@@ -23952,7 +24020,7 @@
         <v>6438.453745537272</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>1972</v>
       </c>
@@ -23960,7 +24028,7 @@
         <v>6883.0231784107909</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>1973</v>
       </c>
@@ -23968,7 +24036,7 @@
         <v>7332.0347180390627</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>1974</v>
       </c>
@@ -23976,7 +24044,7 @@
         <v>7146.5299612890258</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>1975</v>
       </c>
@@ -23984,7 +24052,7 @@
         <v>7274.3078888795862</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>1976</v>
       </c>
@@ -23992,7 +24060,7 @@
         <v>7482.8370571901351</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>1977</v>
       </c>
@@ -24000,7 +24068,7 @@
         <v>7736.0621614669071</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>1978</v>
       </c>
@@ -24008,7 +24076,7 @@
         <v>8070.173341512238</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>1979</v>
       </c>
@@ -24016,7 +24084,7 @@
         <v>8440.9616876698765</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>1980</v>
       </c>
@@ -24024,7 +24092,7 @@
         <v>8610.66</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>1981</v>
       </c>
@@ -24032,7 +24100,7 @@
         <v>9736.59</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>1982</v>
       </c>
@@ -24040,7 +24108,7 @@
         <v>10614.77</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>1983</v>
       </c>
@@ -24048,7 +24116,7 @@
         <v>11293.79</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>1984</v>
       </c>
@@ -24056,7 +24124,7 @@
         <v>12136.9</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>1985</v>
       </c>
@@ -24064,7 +24132,7 @@
         <v>13235.38</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>1986</v>
       </c>
@@ -24072,7 +24140,7 @@
         <v>13808.93</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>1987</v>
       </c>
@@ -24080,7 +24148,7 @@
         <v>14671.52</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>1988</v>
       </c>
@@ -24088,7 +24156,7 @@
         <v>16199.67</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>1989</v>
       </c>
@@ -24096,7 +24164,7 @@
         <v>17664.419999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>1990</v>
       </c>
@@ -24104,7 +24172,7 @@
         <v>19271.88</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>1991</v>
       </c>
@@ -24112,7 +24180,7 @@
         <v>20499.11</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>1992</v>
       </c>
@@ -24120,7 +24188,7 @@
         <v>21057.41</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>1993</v>
       </c>
@@ -24128,7 +24196,7 @@
         <v>21525.119999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>1994</v>
       </c>
@@ -24136,7 +24204,7 @@
         <v>22112.26</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>1995</v>
       </c>
@@ -24144,7 +24212,7 @@
         <v>22954.67</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>1996</v>
       </c>
@@ -24152,7 +24220,7 @@
         <v>23927.46</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>1997</v>
       </c>
@@ -24160,7 +24228,7 @@
         <v>24667.46</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>1998</v>
       </c>
@@ -24168,7 +24236,7 @@
         <v>24375.9</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>1999</v>
       </c>
@@ -24176,7 +24244,7 @@
         <v>24628.04</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>2000</v>
       </c>
@@ -24184,7 +24252,7 @@
         <v>25708.53</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>2001</v>
       </c>
@@ -24192,7 +24260,7 @@
         <v>26320.01</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>2002</v>
       </c>
@@ -24200,7 +24268,7 @@
         <v>26748.82</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2">
       <c r="A105" s="1">
         <v>2003</v>
       </c>
@@ -24208,7 +24276,7 @@
         <v>27701.19</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>2004</v>
       </c>
@@ -24216,7 +24284,7 @@
         <v>29009.52</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>2005</v>
       </c>
@@ -24224,7 +24292,7 @@
         <v>30440.84</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>2006</v>
       </c>
@@ -24232,7 +24300,7 @@
         <v>31888.73</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>2007</v>
       </c>
@@ -24240,7 +24308,7 @@
         <v>33418.14</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>2008</v>
       </c>
@@ -24248,7 +24316,7 @@
         <v>33694.47</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>2009</v>
       </c>
@@ -24256,7 +24324,7 @@
         <v>32080.65</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>2010</v>
       </c>
@@ -24264,7 +24332,7 @@
         <v>33980.53</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>2011</v>
       </c>
@@ -24272,7 +24340,7 @@
         <v>34531.97</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>2012</v>
       </c>
@@ -24280,7 +24348,7 @@
         <v>35723.53</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>2013</v>
       </c>
@@ -24288,7 +24356,7 @@
         <v>36899.360000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>2014</v>
       </c>
@@ -24296,182 +24364,182 @@
         <v>38052.68</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>2024</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>2025</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>2026</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1">
       <c r="A129" s="2">
         <v>2027</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1">
       <c r="A130" s="2">
         <v>2028</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1">
       <c r="A131" s="2">
         <v>2029</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1">
       <c r="A132" s="2">
         <v>2030</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1">
       <c r="A133" s="2">
         <v>2031</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1">
       <c r="A134" s="2">
         <v>2032</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1">
       <c r="A135" s="2">
         <v>2033</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1">
       <c r="A136" s="2">
         <v>2034</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1">
       <c r="A137" s="2">
         <v>2035</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1">
       <c r="A138" s="2">
         <v>2036</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1">
       <c r="A139" s="2">
         <v>2037</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1">
       <c r="A140" s="2">
         <v>2038</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1">
       <c r="A141" s="2">
         <v>2039</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1">
       <c r="A142" s="2">
         <v>2040</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1">
       <c r="A143" s="2">
         <v>2041</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1">
       <c r="A144" s="2">
         <v>2042</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1">
       <c r="A145" s="2">
         <v>2043</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1">
       <c r="A146" s="2">
         <v>2044</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1">
       <c r="A147" s="2">
         <v>2045</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1">
       <c r="A148" s="2">
         <v>2046</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1">
       <c r="A149" s="2">
         <v>2047</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1">
       <c r="A150" s="2">
         <v>2048</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1">
       <c r="A151" s="2">
         <v>2049</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1">
       <c r="A152" s="2">
         <v>2050</v>
       </c>
@@ -24483,20 +24551,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1:C1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1:C1"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1"/>
-      <selection pane="bottomRight" activeCell="C112" sqref="C52:C112"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="13.5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -24507,7 +24575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>1900</v>
       </c>
@@ -24516,7 +24584,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>1901</v>
       </c>
@@ -24525,7 +24593,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>1902</v>
       </c>
@@ -24534,7 +24602,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>1903</v>
       </c>
@@ -24543,7 +24611,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4">
         <v>1904</v>
       </c>
@@ -24552,7 +24620,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="4">
         <v>1905</v>
       </c>
@@ -24561,7 +24629,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="4">
         <v>1906</v>
       </c>
@@ -24570,7 +24638,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="4">
         <v>1907</v>
       </c>
@@ -24579,7 +24647,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="4">
         <v>1908</v>
       </c>
@@ -24588,7 +24656,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="4">
         <v>1909</v>
       </c>
@@ -24597,7 +24665,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="4">
         <v>1910</v>
       </c>
@@ -24606,7 +24674,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="4">
         <v>1911</v>
       </c>
@@ -24615,7 +24683,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="4">
         <v>1912</v>
       </c>
@@ -24624,7 +24692,7 @@
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="4">
         <v>1913</v>
       </c>
@@ -24633,7 +24701,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="4">
         <v>1914</v>
       </c>
@@ -24642,7 +24710,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="4">
         <v>1915</v>
       </c>
@@ -24651,7 +24719,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="4">
         <v>1916</v>
       </c>
@@ -24660,7 +24728,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="4">
         <v>1917</v>
       </c>
@@ -24669,7 +24737,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="4">
         <v>1918</v>
       </c>
@@ -24678,7 +24746,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="4">
         <v>1919</v>
       </c>
@@ -24687,7 +24755,7 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="4">
         <v>1920</v>
       </c>
@@ -24696,7 +24764,7 @@
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="4">
         <v>1921</v>
       </c>
@@ -24705,7 +24773,7 @@
       </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="4">
         <v>1922</v>
       </c>
@@ -24714,7 +24782,7 @@
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="4">
         <v>1923</v>
       </c>
@@ -24723,7 +24791,7 @@
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="4">
         <v>1924</v>
       </c>
@@ -24732,7 +24800,7 @@
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="4">
         <v>1925</v>
       </c>
@@ -24741,7 +24809,7 @@
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="4">
         <v>1926</v>
       </c>
@@ -24750,7 +24818,7 @@
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="4">
         <v>1927</v>
       </c>
@@ -24759,7 +24827,7 @@
       </c>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="4">
         <v>1928</v>
       </c>
@@ -24768,7 +24836,7 @@
       </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="4">
         <v>1929</v>
       </c>
@@ -24777,7 +24845,7 @@
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="4">
         <v>1930</v>
       </c>
@@ -24786,7 +24854,7 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="4">
         <v>1931</v>
       </c>
@@ -24795,7 +24863,7 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="4">
         <v>1932</v>
       </c>
@@ -24804,7 +24872,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="4">
         <v>1933</v>
       </c>
@@ -24813,7 +24881,7 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="4">
         <v>1934</v>
       </c>
@@ -24822,7 +24890,7 @@
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="4">
         <v>1935</v>
       </c>
@@ -24831,7 +24899,7 @@
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="4">
         <v>1936</v>
       </c>
@@ -24840,7 +24908,7 @@
       </c>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="4">
         <v>1937</v>
       </c>
@@ -24849,7 +24917,7 @@
       </c>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="4">
         <v>1938</v>
       </c>
@@ -24858,7 +24926,7 @@
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="4">
         <v>1939</v>
       </c>
@@ -24867,7 +24935,7 @@
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="4">
         <v>1940</v>
       </c>
@@ -24876,7 +24944,7 @@
       </c>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="4">
         <v>1941</v>
       </c>
@@ -24885,7 +24953,7 @@
       </c>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="4">
         <v>1942</v>
       </c>
@@ -24894,7 +24962,7 @@
       </c>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="4">
         <v>1943</v>
       </c>
@@ -24903,7 +24971,7 @@
       </c>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="4">
         <v>1944</v>
       </c>
@@ -24912,7 +24980,7 @@
       </c>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="4">
         <v>1945</v>
       </c>
@@ -24921,7 +24989,7 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="4">
         <v>1946</v>
       </c>
@@ -24930,7 +24998,7 @@
       </c>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="4">
         <v>1947</v>
       </c>
@@ -24939,7 +25007,7 @@
       </c>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="4">
         <v>1948</v>
       </c>
@@ -24948,7 +25016,7 @@
       </c>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="4">
         <v>1949</v>
       </c>
@@ -24957,7 +25025,7 @@
       </c>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="4">
         <v>1950</v>
       </c>
@@ -24968,7 +25036,7 @@
         <v>157813</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="4">
         <v>1951</v>
       </c>
@@ -24979,7 +25047,7 @@
         <v>160480.79999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="4">
         <v>1952</v>
       </c>
@@ -24990,7 +25058,7 @@
         <v>163148.6</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="4">
         <v>1953</v>
       </c>
@@ -25001,7 +25069,7 @@
         <v>165816.4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="4">
         <v>1954</v>
       </c>
@@ -25012,7 +25080,7 @@
         <v>168484.2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="4">
         <v>1955</v>
       </c>
@@ -25023,7 +25091,7 @@
         <v>171152</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="4">
         <v>1956</v>
       </c>
@@ -25034,7 +25102,7 @@
         <v>174186.8</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="4">
         <v>1957</v>
       </c>
@@ -25045,7 +25113,7 @@
         <v>177221.6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="4">
         <v>1958</v>
       </c>
@@ -25056,7 +25124,7 @@
         <v>180256.4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="4">
         <v>1959</v>
       </c>
@@ -25067,7 +25135,7 @@
         <v>183291.2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="4">
         <v>1960</v>
       </c>
@@ -25078,7 +25146,7 @@
         <v>186326</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="4">
         <v>1961</v>
       </c>
@@ -25089,7 +25157,7 @@
         <v>188951.4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="4">
         <v>1962</v>
       </c>
@@ -25100,7 +25168,7 @@
         <v>191576.8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="4">
         <v>1963</v>
       </c>
@@ -25111,7 +25179,7 @@
         <v>194202.2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="4">
         <v>1964</v>
       </c>
@@ -25122,7 +25190,7 @@
         <v>196827.6</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="4">
         <v>1965</v>
       </c>
@@ -25133,7 +25201,7 @@
         <v>199453</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="4">
         <v>1966</v>
       </c>
@@ -25144,7 +25212,7 @@
         <v>201455.2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="4">
         <v>1967</v>
       </c>
@@ -25155,7 +25223,7 @@
         <v>203457.4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="4">
         <v>1968</v>
       </c>
@@ -25166,7 +25234,7 @@
         <v>205459.6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="4">
         <v>1969</v>
       </c>
@@ -25177,7 +25245,7 @@
         <v>207461.8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="4">
         <v>1970</v>
       </c>
@@ -25188,7 +25256,7 @@
         <v>209464</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="4">
         <v>1971</v>
       </c>
@@ -25199,7 +25267,7 @@
         <v>211392.8</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="4">
         <v>1972</v>
       </c>
@@ -25210,7 +25278,7 @@
         <v>213321.60000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="4">
         <v>1973</v>
       </c>
@@ -25221,7 +25289,7 @@
         <v>215250.4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="4">
         <v>1974</v>
       </c>
@@ -25232,7 +25300,7 @@
         <v>217179.2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="4">
         <v>1975</v>
       </c>
@@ -25243,7 +25311,7 @@
         <v>219108</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="4">
         <v>1976</v>
       </c>
@@ -25254,7 +25322,7 @@
         <v>221180.2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="4">
         <v>1977</v>
       </c>
@@ -25265,7 +25333,7 @@
         <v>223252.4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="4">
         <v>1978</v>
       </c>
@@ -25276,7 +25344,7 @@
         <v>225324.6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="4">
         <v>1979</v>
       </c>
@@ -25287,7 +25355,7 @@
         <v>227396.8</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="4">
         <v>1980</v>
       </c>
@@ -25298,7 +25366,7 @@
         <v>229469</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="4">
         <v>1981</v>
       </c>
@@ -25309,7 +25377,7 @@
         <v>231697.6</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="4">
         <v>1982</v>
       </c>
@@ -25320,7 +25388,7 @@
         <v>233926.2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="4">
         <v>1983</v>
       </c>
@@ -25331,7 +25399,7 @@
         <v>236154.8</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="4">
         <v>1984</v>
       </c>
@@ -25342,7 +25410,7 @@
         <v>238383.4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="4">
         <v>1985</v>
       </c>
@@ -25353,7 +25421,7 @@
         <v>240612</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="4">
         <v>1986</v>
       </c>
@@ -25364,7 +25432,7 @@
         <v>243462.6</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="4">
         <v>1987</v>
       </c>
@@ -25375,7 +25443,7 @@
         <v>246313.2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="4">
         <v>1988</v>
       </c>
@@ -25386,7 +25454,7 @@
         <v>249163.8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="4">
         <v>1989</v>
       </c>
@@ -25397,7 +25465,7 @@
         <v>252014.4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3">
       <c r="A92" s="4">
         <v>1990</v>
       </c>
@@ -25408,7 +25476,7 @@
         <v>254865</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3">
       <c r="A93" s="4">
         <v>1991</v>
       </c>
@@ -25419,7 +25487,7 @@
         <v>258021.6</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3">
       <c r="A94" s="4">
         <v>1992</v>
       </c>
@@ -25430,7 +25498,7 @@
         <v>261178.2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3">
       <c r="A95" s="4">
         <v>1993</v>
       </c>
@@ -25441,7 +25509,7 @@
         <v>264334.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3">
       <c r="A96" s="4">
         <v>1994</v>
       </c>
@@ -25452,7 +25520,7 @@
         <v>267491.40000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3">
       <c r="A97" s="4">
         <v>1995</v>
       </c>
@@ -25463,7 +25531,7 @@
         <v>270648</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3">
       <c r="A98" s="4">
         <v>1996</v>
       </c>
@@ -25474,7 +25542,7 @@
         <v>274086.8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3">
       <c r="A99" s="4">
         <v>1997</v>
       </c>
@@ -25485,7 +25553,7 @@
         <v>277525.59999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3">
       <c r="A100" s="4">
         <v>1998</v>
       </c>
@@ -25496,7 +25564,7 @@
         <v>280964.40000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3">
       <c r="A101" s="4">
         <v>1999</v>
       </c>
@@ -25507,7 +25575,7 @@
         <v>284403.20000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3">
       <c r="A102" s="4">
         <v>2000</v>
       </c>
@@ -25518,7 +25586,7 @@
         <v>287842</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3">
       <c r="A103" s="4">
         <v>2001</v>
       </c>
@@ -25529,7 +25597,7 @@
         <v>290821.8</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3">
       <c r="A104" s="4">
         <v>2002</v>
       </c>
@@ -25540,7 +25608,7 @@
         <v>293801.59999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3">
       <c r="A105" s="4">
         <v>2003</v>
       </c>
@@ -25551,7 +25619,7 @@
         <v>296781.40000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3">
       <c r="A106" s="4">
         <v>2004</v>
       </c>
@@ -25562,7 +25630,7 @@
         <v>299761.2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3">
       <c r="A107" s="5">
         <v>2005</v>
       </c>
@@ -25573,7 +25641,7 @@
         <v>302741</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3">
       <c r="A108" s="5">
         <v>2006</v>
       </c>
@@ -25584,7 +25652,7 @@
         <v>305721</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3">
       <c r="A109" s="5">
         <v>2007</v>
       </c>
@@ -25595,7 +25663,7 @@
         <v>308701</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3">
       <c r="A110" s="5">
         <v>2008</v>
       </c>
@@ -25606,7 +25674,7 @@
         <v>311681</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3">
       <c r="A111" s="5">
         <v>2009</v>
       </c>
@@ -25617,7 +25685,7 @@
         <v>314661</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3">
       <c r="A112" s="5">
         <v>2010</v>
       </c>
@@ -25628,280 +25696,280 @@
         <v>317641</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3">
       <c r="A113" s="5">
         <v>2011</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3">
       <c r="A114" s="5">
         <v>2012</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3">
       <c r="A115" s="5">
         <v>2013</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3">
       <c r="A116" s="5">
         <v>2014</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3">
       <c r="A117" s="5">
         <v>2015</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3">
       <c r="A118" s="5">
         <v>2016</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3">
       <c r="A119" s="5">
         <v>2017</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3">
       <c r="A120" s="5">
         <v>2018</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3">
       <c r="A121" s="5">
         <v>2019</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3">
       <c r="A122" s="5">
         <v>2020</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3">
       <c r="A123" s="5">
         <v>2021</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3">
       <c r="A124" s="5">
         <v>2022</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3">
       <c r="A125" s="5">
         <v>2023</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3">
       <c r="A126" s="5">
         <v>2024</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3">
       <c r="A127" s="5">
         <v>2025</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3">
       <c r="A128" s="5">
         <v>2026</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3">
       <c r="A129" s="5">
         <v>2027</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3">
       <c r="A130" s="5">
         <v>2028</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3">
       <c r="A131" s="5">
         <v>2029</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3">
       <c r="A132" s="5">
         <v>2030</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3">
       <c r="A133" s="5">
         <v>2031</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3">
       <c r="A134" s="5">
         <v>2032</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3">
       <c r="A135" s="5">
         <v>2033</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3">
       <c r="A136" s="5">
         <v>2034</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3">
       <c r="A137" s="5">
         <v>2035</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3">
       <c r="A138" s="5">
         <v>2036</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3">
       <c r="A139" s="5">
         <v>2037</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3">
       <c r="A140" s="5">
         <v>2038</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3">
       <c r="A141" s="5">
         <v>2039</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3">
       <c r="A142" s="5">
         <v>2040</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3">
       <c r="A143" s="5">
         <v>2041</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3">
       <c r="A144" s="5">
         <v>2042</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3">
       <c r="A145" s="5">
         <v>2043</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:3">
       <c r="A146" s="5">
         <v>2044</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3">
       <c r="A147" s="5">
         <v>2045</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:3">
       <c r="A148" s="5">
         <v>2046</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:3">
       <c r="A149" s="5">
         <v>2047</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:3">
       <c r="A150" s="5">
         <v>2048</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:3">
       <c r="A151" s="5">
         <v>2049</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:3">
       <c r="A152" s="5">
         <v>2050</v>
       </c>
@@ -25915,16 +25983,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>67</v>
       </c>
@@ -25932,7 +26000,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1980</v>
       </c>
@@ -25940,7 +26008,7 @@
         <v>253.04</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1981</v>
       </c>
@@ -25948,7 +26016,7 @@
         <v>287.07</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1982</v>
       </c>
@@ -25956,7 +26024,7 @@
         <v>327.45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1983</v>
       </c>
@@ -25964,7 +26032,7 @@
         <v>372.52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1984</v>
       </c>
@@ -25972,7 +26040,7 @@
         <v>438.63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1985</v>
       </c>
@@ -25980,7 +26048,7 @@
         <v>506.52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1986</v>
       </c>
@@ -25988,7 +26056,7 @@
         <v>553.54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>1987</v>
       </c>
@@ -25996,7 +26064,7 @@
         <v>623.12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>1988</v>
       </c>
@@ -26004,7 +26072,7 @@
         <v>706.66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1989</v>
       </c>
@@ -26012,7 +26080,7 @@
         <v>752.85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1990</v>
       </c>
@@ -26020,7 +26088,7 @@
         <v>799.13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1991</v>
       </c>
@@ -26028,7 +26096,7 @@
         <v>889.92</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1992</v>
       </c>
@@ -26036,7 +26104,7 @@
         <v>1027.8599999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1993</v>
       </c>
@@ -26044,7 +26112,7 @@
         <v>1185.6500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1994</v>
       </c>
@@ -26052,7 +26120,7 @@
         <v>1354.05</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>1995</v>
       </c>
@@ -26060,7 +26128,7 @@
         <v>1517.24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1996</v>
       </c>
@@ -26068,7 +26136,7 @@
         <v>1681.95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>1997</v>
       </c>
@@ -26076,7 +26144,7 @@
         <v>1851.07</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -26084,7 +26152,7 @@
         <v>1999.37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>1999</v>
       </c>
@@ -26092,7 +26160,7 @@
         <v>2164.67</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -26100,7 +26168,7 @@
         <v>2382.38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>2001</v>
       </c>
@@ -26108,7 +26176,7 @@
         <v>2620.94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -26116,7 +26184,7 @@
         <v>2884.25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>2003</v>
       </c>
@@ -26124,7 +26192,7 @@
         <v>3217.46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>2004</v>
       </c>
@@ -26132,7 +26200,7 @@
         <v>3614.1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -26140,7 +26208,7 @@
         <v>4102.5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>2006</v>
       </c>
@@ -26148,7 +26216,7 @@
         <v>4739.55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>2007</v>
       </c>
@@ -26156,7 +26224,7 @@
         <v>5525.77</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>2008</v>
       </c>
@@ -26164,7 +26232,7 @@
         <v>6145.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>2009</v>
       </c>
@@ -26172,7 +26240,7 @@
         <v>6730.24</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>2010</v>
       </c>
@@ -26180,7 +26248,7 @@
         <v>7487.38</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -26188,7 +26256,7 @@
         <v>8304.5300000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>2012</v>
       </c>
@@ -26196,7 +26264,7 @@
         <v>9051.34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>2013</v>
       </c>
@@ -26204,7 +26272,7 @@
         <v>9844.0300000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>2014</v>
       </c>
@@ -26212,12 +26280,12 @@
         <v>10694.7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="B39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="B40" s="19" t="s">
         <v>69</v>
       </c>
@@ -26225,23 +26293,23 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B40" r:id="rId1"/>
+    <hyperlink ref="B40" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B36"/>
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>67</v>
       </c>
@@ -26249,7 +26317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1980</v>
       </c>
@@ -26257,7 +26325,7 @@
         <v>427.27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1981</v>
       </c>
@@ -26265,7 +26333,7 @@
         <v>486.21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1982</v>
       </c>
@@ -26273,7 +26341,7 @@
         <v>525.51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1983</v>
       </c>
@@ -26281,7 +26349,7 @@
         <v>576.35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1984</v>
       </c>
@@ -26289,7 +26357,7 @@
         <v>606.26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1985</v>
       </c>
@@ -26297,7 +26365,7 @@
         <v>644.65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1986</v>
       </c>
@@ -26305,7 +26373,7 @@
         <v>674.62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>1987</v>
       </c>
@@ -26313,7 +26381,7 @@
         <v>703.83</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>1988</v>
       </c>
@@ -26321,7 +26389,7 @@
         <v>781.84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1989</v>
       </c>
@@ -26329,7 +26397,7 @@
         <v>842.83</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1990</v>
       </c>
@@ -26337,7 +26405,7 @@
         <v>899.31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1991</v>
       </c>
@@ -26345,7 +26413,7 @@
         <v>920.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1992</v>
       </c>
@@ -26353,7 +26421,7 @@
         <v>973.57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1993</v>
       </c>
@@ -26361,7 +26429,7 @@
         <v>1021.93</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1994</v>
       </c>
@@ -26369,7 +26437,7 @@
         <v>1091.3699999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>1995</v>
       </c>
@@ -26377,7 +26445,7 @@
         <v>1175.52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1996</v>
       </c>
@@ -26385,7 +26453,7 @@
         <v>1262.99</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>1997</v>
       </c>
@@ -26393,7 +26461,7 @@
         <v>1311.4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -26401,7 +26469,7 @@
         <v>1381.27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>1999</v>
       </c>
@@ -26409,7 +26477,7 @@
         <v>1497.47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -26417,7 +26485,7 @@
         <v>1560.96</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>2001</v>
       </c>
@@ -26425,7 +26493,7 @@
         <v>1643.69</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -26433,7 +26501,7 @@
         <v>1706.29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>2003</v>
       </c>
@@ -26441,7 +26509,7 @@
         <v>1848.64</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>2004</v>
       </c>
@@ -26449,7 +26517,7 @@
         <v>2042.07</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -26457,7 +26525,7 @@
         <v>2260.2199999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>2006</v>
       </c>
@@ -26465,7 +26533,7 @@
         <v>2509.4699999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>2007</v>
       </c>
@@ -26473,7 +26541,7 @@
         <v>2789.08</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>2008</v>
       </c>
@@ -26481,7 +26549,7 @@
         <v>2913.51</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>2009</v>
       </c>
@@ -26489,7 +26557,7 @@
         <v>3141.3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>2010</v>
       </c>
@@ -26497,7 +26565,7 @@
         <v>3457.13</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -26505,7 +26573,7 @@
         <v>3708.25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>2012</v>
       </c>
@@ -26513,7 +26581,7 @@
         <v>3899.56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>2013</v>
       </c>
@@ -26521,7 +26589,7 @@
         <v>4077.06</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>2014</v>
       </c>
@@ -26529,12 +26597,12 @@
         <v>4306.9399999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="B39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="B40" t="s">
         <v>66</v>
       </c>
@@ -26546,315 +26614,902 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B36"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1980</v>
       </c>
       <c r="B2">
         <v>1099.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>74.75</v>
+      </c>
+      <c r="E2">
+        <v>49376.4</v>
+      </c>
+      <c r="F2">
+        <f>D2*1000000000/(E2*1000)</f>
+        <v>1513.8811253959382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1981</v>
       </c>
       <c r="B3">
         <v>1236.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <v>86.66</v>
+      </c>
+      <c r="E3">
+        <v>50432.6</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">D3*1000000000/(E3*1000)</f>
+        <v>1718.3329830308173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1982</v>
       </c>
       <c r="B4">
         <v>1356.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>96.94</v>
+      </c>
+      <c r="E4">
+        <v>51488.800000000003</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1882.7395472413418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1983</v>
       </c>
       <c r="B5">
         <v>1468.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>106.36</v>
+      </c>
+      <c r="E5">
+        <v>52545</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2024.1697592539729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1984</v>
       </c>
       <c r="B6">
         <v>1574.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>116.54</v>
+      </c>
+      <c r="E6">
+        <v>53370.6</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2183.5992100519761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1985</v>
       </c>
       <c r="B7">
         <v>1659.83</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <v>125.81</v>
+      </c>
+      <c r="E7">
+        <v>54196.2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2321.3804657891142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1986</v>
       </c>
       <c r="B8">
         <v>1747.53</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8">
+        <v>135.44999999999999</v>
+      </c>
+      <c r="E8">
+        <v>55021.8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2461.7515239414192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1987</v>
       </c>
       <c r="B9">
         <v>1929.91</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <v>152.01</v>
+      </c>
+      <c r="E9">
+        <v>55847.4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2721.8814125635213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1988</v>
       </c>
       <c r="B10">
         <v>2218.04</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>56673</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1989</v>
       </c>
       <c r="B11">
         <v>2569.81</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <v>57366.400000000001</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1990</v>
       </c>
       <c r="B12">
         <v>2921.08</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>58059.8</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1991</v>
       </c>
       <c r="B13">
         <v>3225.46</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <v>58753.2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1992</v>
       </c>
       <c r="B14">
         <v>3514.57</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <v>59446.6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>1993</v>
       </c>
       <c r="B15">
         <v>3858.59</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <v>60140</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>1994</v>
       </c>
       <c r="B16">
         <v>4239.6899999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <v>60581.4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1995</v>
       </c>
       <c r="B17">
         <v>4698.95</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>61022.8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1996</v>
       </c>
       <c r="B18">
         <v>5011.8100000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>61464.2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1997</v>
       </c>
       <c r="B19">
         <v>4969.79</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>61905.599999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1998</v>
       </c>
       <c r="B20">
         <v>4448.18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <v>62347</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1999</v>
       </c>
       <c r="B21">
         <v>4697.45</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <v>63066.8</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2000</v>
       </c>
       <c r="B22">
         <v>5014.7299999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <v>63786.6</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2001</v>
       </c>
       <c r="B23">
         <v>5152.71</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E23">
+        <v>64506.400000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2002</v>
       </c>
       <c r="B24">
         <v>5464.57</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <v>65226.2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2003</v>
       </c>
       <c r="B25">
         <v>5919.62</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E25">
+        <v>65946</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2004</v>
       </c>
       <c r="B26">
         <v>6350.11</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E26">
+        <v>66384.600000000006</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2005</v>
       </c>
       <c r="B27">
         <v>6835.04</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D27">
+        <v>670.93</v>
+      </c>
+      <c r="E27">
+        <v>66823.199999999997</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>10040.375199032671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2006</v>
       </c>
       <c r="B28">
         <v>7387.38</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <v>67261.8</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2007</v>
       </c>
       <c r="B29">
         <v>7910.28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E29">
+        <v>67700.399999999994</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2008</v>
       </c>
       <c r="B30">
         <v>8192.77</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E30">
+        <v>68139</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>2009</v>
       </c>
       <c r="B31">
         <v>7996.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E31">
+        <v>68499</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>2010</v>
       </c>
       <c r="B32">
         <v>8673.68</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E32">
+        <v>68859</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>2011</v>
       </c>
       <c r="B33">
         <v>8810.49</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E33">
+        <v>69219</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>2012</v>
       </c>
       <c r="B34">
         <v>9502.93</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E34">
+        <v>69579</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>2013</v>
       </c>
       <c r="B35">
         <v>9874.51</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E35">
+        <v>69939</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>2014</v>
       </c>
       <c r="B36">
         <v>10226.82</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E36">
+        <v>70239.8</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="E37">
+        <v>70540.600000000006</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="E38">
+        <v>70841.399999999994</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="B39" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>66</v>
+      <c r="E39">
+        <v>71142.2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40">
+        <v>71443</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="E41">
+        <v>71680</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="E42">
+        <v>71917</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="E43">
+        <v>72154</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="E44">
+        <v>72391</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="E45">
+        <v>72628</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="E46">
+        <v>72794.8</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="E47">
+        <v>72961.600000000006</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="E48">
+        <v>73128.399999999994</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49">
+        <v>73295.199999999997</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50">
+        <v>73462</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6">
+      <c r="E51">
+        <v>73551.600000000006</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6">
+      <c r="E52">
+        <v>73641.2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6">
+      <c r="E53">
+        <v>73730.8</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6">
+      <c r="E54">
+        <v>73820.399999999994</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6">
+      <c r="E55">
+        <v>73910</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6">
+      <c r="E56">
+        <v>73928.800000000003</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6">
+      <c r="E57">
+        <v>73947.600000000006</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6">
+      <c r="E58">
+        <v>73966.399999999994</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6">
+      <c r="E59">
+        <v>73985.2</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6">
+      <c r="E60">
+        <v>74004</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6">
+      <c r="E61">
+        <v>73962.2</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6">
+      <c r="E62">
+        <v>73920.399999999994</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6">
+      <c r="E63">
+        <v>73878.600000000006</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6">
+      <c r="E64">
+        <v>73836.800000000003</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6">
+      <c r="E65">
+        <v>73795</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6">
+      <c r="E66">
+        <v>73708.2</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6">
+      <c r="E67">
+        <v>73621.399999999994</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F70" si="1">D67*1000000000/(E67*1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6">
+      <c r="E68">
+        <v>73534.600000000006</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6">
+      <c r="E69">
+        <v>73447.8</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6">
+      <c r="E70">
+        <v>73361</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B40" r:id="rId1" xr:uid="{FEF46101-5AF4-A14D-AA60-C37A1BC1D845}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>